--- a/biology/Botanique/Philadelphus_coronarius/Philadelphus_coronarius.xlsx
+++ b/biology/Botanique/Philadelphus_coronarius/Philadelphus_coronarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philadelphus coronarius, le Seringa commun[n 1] ou Jasmin des poètes, est une espèce d'arbuste de la famille des Hydrangéacées, originaire du Nord-Est de la Turquie et du Caucase et introduit comme arbuste ornemental dans de nombreuses régions tempérées.
 Cet arbuste très rustique pousse sous la forme d'une multitude de tiges indépendantes, sans tronc commun. Il apprécie les sols riches en humus, en plein soleil ou dans un lieu semi-ombragé.
@@ -513,13 +525,15 @@
           <t>Nomenclature, étymologie et taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’espèce a été décrite et nommée Philadelphus coronarius en 1753 par Linné dans Species Plantarum 1: 470.
-Le nom de genre Philadelphus est un nom composé en latin scientifique, emprunté au grec ancien φιλάδελφος « qui aime ses frères et sœurs » construit sur les deux étymons suivants : φίλος (philos) « aimé, chéri » et en composition « qui aime » et ἀδελφό (adelphos) « 1.frère, 2.frère et sœur » (cf. dictionnaire Bailly). Ce nom signifie « qui aime son frère ou sa sœur » et fait référence à un roi d’Égypte, Ptolémée II dit Philadelphos, parce qu’il avait épousé en secondes noces sa sœur Arsinoé II. Linné a repris le terme Philadelphus déjà employé par Gaspard Bauhin[1].
+Le nom de genre Philadelphus est un nom composé en latin scientifique, emprunté au grec ancien φιλάδελφος « qui aime ses frères et sœurs » construit sur les deux étymons suivants : φίλος (philos) « aimé, chéri » et en composition « qui aime » et ἀδελφό (adelphos) « 1.frère, 2.frère et sœur » (cf. dictionnaire Bailly). Ce nom signifie « qui aime son frère ou sa sœur » et fait référence à un roi d’Égypte, Ptolémée II dit Philadelphos, parce qu’il avait épousé en secondes noces sa sœur Arsinoé II. Linné a repris le terme Philadelphus déjà employé par Gaspard Bauhin.
 L’épithète spécifique coronarius est un adjectif de latin scientifique venant du grec moderne κορώνη (korōnē) « couronne », en référence à la forme des fleurs.
-Sur le plan taxinomique, le genre Philadelphus a été déplacé de la famille des Saxifragaceae dans la famille des Hydrangeaceae à la suite d’analyses moléculaires de l’ADN. Le monophylétisme des Hydrangeaceae est attesté par les caractères morphologiques et moléculaires. Les analyses cladistiques montrent que les Hydrangeaceae n’ont que de lointaines affinités avec les Saxifragaceae et sont nettement en faveur de leur rattachement aux Cornaceae[2].
-Les analyses phylogénétiques des séquences rbcL suggèrent la présence d'une famille Hydrangeaceae monophylétique comprenant tous les genres: Decumaria, Pileostegia, Schizophragma, Hydrangea, Dichroa, Broussaisia, Platycrater, Cardiandra, Deinanthe, Carpenteria, Philadelphus, Deutzia, Fendlerella, Whipplea, Fendlera et Jamesia, ainsi que Kirengeshoma, plus problématique[3].
+Sur le plan taxinomique, le genre Philadelphus a été déplacé de la famille des Saxifragaceae dans la famille des Hydrangeaceae à la suite d’analyses moléculaires de l’ADN. Le monophylétisme des Hydrangeaceae est attesté par les caractères morphologiques et moléculaires. Les analyses cladistiques montrent que les Hydrangeaceae n’ont que de lointaines affinités avec les Saxifragaceae et sont nettement en faveur de leur rattachement aux Cornaceae.
+Les analyses phylogénétiques des séquences rbcL suggèrent la présence d'une famille Hydrangeaceae monophylétique comprenant tous les genres: Decumaria, Pileostegia, Schizophragma, Hydrangea, Dichroa, Broussaisia, Platycrater, Cardiandra, Deinanthe, Carpenteria, Philadelphus, Deutzia, Fendlerella, Whipplea, Fendlera et Jamesia, ainsi que Kirengeshoma, plus problématique.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon POWO[4], le nom valide Philadelphus coronarius possède 36 synonymes
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon POWO, le nom valide Philadelphus coronarius possède 36 synonymes
 Philadelphus aromaticus Steud. dans Nomencl. Bot. 1: 611 (1821), nom. nud.
 Philadelphus caucasicus Koehne dans Gartenflora 45: 619 (1896)
 etc.</t>
@@ -581,13 +597,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philadelphus coronarius est un arbuste à feuilles caduques, de 1 à 3 m de hauteur, atteignant parfois 4 m. Les tiges dressées à ascendantes sont d’abord vertes puis brunes plus âgées, striées longitudinalement et à écorce caduque, s’exfoliant ou se desquamant en lanières[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philadelphus coronarius est un arbuste à feuilles caduques, de 1 à 3 m de hauteur, atteignant parfois 4 m. Les tiges dressées à ascendantes sont d’abord vertes puis brunes plus âgées, striées longitudinalement et à écorce caduque, s’exfoliant ou se desquamant en lanières.
 Les feuilles opposées, portées par un pétiole court de 1–6 mm, comportent un limbe largement lancéolé à largement ovale, ou étroitement à largement elliptique, rarement étroitement lancéolé chez les formes horticoles, de 3 à 10 cm de long sur 2 à 6 cm de large, à  bords entiers à irréguliers ou régulièrement dentelées, crénelées ou dentelées, d’un vert mat qui vire au jaune en automne avant de tomber.
 Les inflorescences sont des racèmes terminaux à 5-7 (-9) fleurs ou 2 fleurs à l’aisselle des feuilles.
-La fleur large de 3 à 4 cm, comporte 4 sépales verts, ovales, ovales-lancéolées ou triangulaires, à apex aigu à acuminé, 4 pétales blancs à crème, oblongs, obovales ou orbiculés, de 5–25 × 5–22 mm, de nombreuses étamines (de 20 à 50), 4 styles connés proximalement, de 7-10 mm. Floraison au parfum entre celui de l’oranger et du jasmin, nectarifère, visitée par les abeilles et les papillons[6].
-Les fruits sont des capsules de 7-11 x 4-7 mm, contenant des graines de 3 mm[5].
+La fleur large de 3 à 4 cm, comporte 4 sépales verts, ovales, ovales-lancéolées ou triangulaires, à apex aigu à acuminé, 4 pétales blancs à crème, oblongs, obovales ou orbiculés, de 5–25 × 5–22 mm, de nombreuses étamines (de 20 à 50), 4 styles connés proximalement, de 7-10 mm. Floraison au parfum entre celui de l’oranger et du jasmin, nectarifère, visitée par les abeilles et les papillons.
+Les fruits sont des capsules de 7-11 x 4-7 mm, contenant des graines de 3 mm.
 La floraison a lieu de mai à juillet et la fructification de juillet à septembre.
 			Port buissonnant en boule du seringa commun.
 			Fleurs à 4 pétales blancs, en coupe.
@@ -621,9 +639,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon POWO[4], Philadelphus coronarius est originaire du Nord-Est de la Turquie et du Caucase.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon POWO, Philadelphus coronarius est originaire du Nord-Est de la Turquie et du Caucase.
 Il a été introduit et s’est naturalisé au Nord-Est de l’Amérique du Nord, en Espagne, France, Italie, Hongrie, Grande Bretagne, Roumanie, Suède, Norvège, Turkménistan et Ouzbékistan.
 </t>
         </is>
@@ -653,11 +673,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le seringa commun est un arbuste parfaitement rustique dans les régions tempérées. Il a été adopté comme plante ornementale pour sa floraison très parfumée, courant juin-juillet et l’élégance de ses fleurs blanches aux étamines jaune pâle.
-Il pousse au soleil ou à mi-ombre partielle. Il tolère jusqu’à −30 °C, à l’abri des vents forts et des gelées printanières pour protéger les boutons floraux et la floraison[6].
-Parmi les hybrides et cultivars, on peut citer[6] :
+Il pousse au soleil ou à mi-ombre partielle. Il tolère jusqu’à −30 °C, à l’abri des vents forts et des gelées printanières pour protéger les boutons floraux et la floraison.
+Parmi les hybrides et cultivars, on peut citer :
 Philadelphus coronarius ‘Aureus’, se distingue par la grande taille de ses fleurs avoisinant les 6 cm
 Philadeslphus x lemoinei, Seringa de ‘Lemoine’, ancienne obtention (1880 /1884) de Victor Lemoine, issu du croisement de Philadelphus coronarius et de Philadelphus microphyllus, donnant des petites fleurs très parfumées
 Philadeslphus x lemoinei ‘Dame blanche’, floraison semi-double</t>
